--- a/biology/Zoologie/Geodia_australis/Geodia_australis.xlsx
+++ b/biology/Zoologie/Geodia_australis/Geodia_australis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Geodia australis est une espèce d'éponges de la famille des Geodiidae présente dans l'océan Atlantique le long des côtes du Brésil[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Geodia australis est une espèce d'éponges de la famille des Geodiidae présente dans l'océan Atlantique le long des côtes du Brésil.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Geodia australis a été décrite en 2000 par les biologistes marins brésiliennes Carla Maria Menegola da Silva (d) et Beatriz Mothes (d)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Geodia australis a été décrite en 2000 par les biologistes marins brésiliennes Carla Maria Menegola da Silva (d) et Beatriz Mothes (d),.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est présente tout le long des côtes du Brésil. Son holotype a été récolté au large de Santa Vitória do Palmar, à l'extrême sud du Brésil, dans l'État du Rio Grande do Sul[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est présente tout le long des côtes du Brésil. Son holotype a été récolté au large de Santa Vitória do Palmar, à l'extrême sud du Brésil, dans l'État du Rio Grande do Sul.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Geodia australis présente un diamètre variant de 31 à 38 mm et une hauteur de 28 mm[2]. Sa couleur dans l'alcool est blanc grisâtre[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Geodia australis présente un diamètre variant de 31 à 38 mm et une hauteur de 28 mm. Sa couleur dans l'alcool est blanc grisâtre.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, du latin australis, « du Sud », fait référence à référence à sa localité type située au large du Sud du Brésil[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, du latin australis, « du Sud », fait référence à référence à sa localité type située au large du Sud du Brésil.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Carla Maria Menegola da Silva et Beatriz Mothes, « Three new species of Geodia Lamarck, 1815 (Porifera, Demospongiae) from the bathyal depths off Brazilian coast, Southwestern Atlantic », Revue suisse de zoologie, MHNG, vol. 107,‎ 2000, p. 31–48 (ISSN 0035-418X, DOI 10.5962/BHL.PART.80117, lire en ligne)</t>
         </is>
